--- a/data/trans_bre/iP18_E_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/iP18_E_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 2,33</t>
+          <t>-3,42; 2,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 2,56</t>
+          <t>-1,57; 2,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 3,66</t>
+          <t>-5,24; 3,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,49; 0,0</t>
+          <t>-41,33; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 2,33</t>
+          <t>-3,44; 2,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 2,63</t>
+          <t>-1,57; 2,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 3,84</t>
+          <t>-5,31; 3,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-33,49; 0,0</t>
+          <t>-41,33; 0,0</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 2,44</t>
+          <t>-2,27; 2,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 1,79</t>
+          <t>-2,42; 1,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 1,56</t>
+          <t>-2,89; 1,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,04; -3,76</t>
+          <t>-22,96; -3,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 2,59</t>
+          <t>-2,34; 2,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 1,88</t>
+          <t>-2,5; 2,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 1,64</t>
+          <t>-2,96; 1,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-22,46; -3,92</t>
+          <t>-23,36; -3,36</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 10,48</t>
+          <t>-2,72; 10,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 6,45</t>
+          <t>-5,3; 6,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 7,14</t>
+          <t>-5,11; 7,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,85; 12,82</t>
+          <t>-20,6; 11,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 13,52</t>
+          <t>-3,14; 13,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 7,41</t>
+          <t>-5,77; 7,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 8,66</t>
+          <t>-5,75; 8,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,57; 17,19</t>
+          <t>-23,44; 15,6</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 3,09</t>
+          <t>-1,67; 2,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 2,14</t>
+          <t>-1,93; 2,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 2,01</t>
+          <t>-2,14; 2,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-18,05; -2,68</t>
+          <t>-18,91; -2,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 3,38</t>
+          <t>-1,78; 2,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 2,29</t>
+          <t>-2,02; 2,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 2,14</t>
+          <t>-2,26; 2,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-18,99; -2,96</t>
+          <t>-20,13; -2,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/iP18_E_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/iP18_E_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-5,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,61%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,49%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,97%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,41; 2,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,6; 2,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,28; 3,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,16; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,42; 2,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,6; 2,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,32; 3,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,16; 0,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,94</t>
+          <t>-11,91</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,61%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>-0,21%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-0,49%</t>
+          <t>-0,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-5,94%</t>
+          <t>-12,28%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 2,24</t>
+          <t>-2,14; 2,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 2,63</t>
+          <t>-2,61; 1,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 3,0</t>
+          <t>-3,01; 1,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-41,33; 0,0</t>
+          <t>-25,65; -3,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 2,32</t>
+          <t>-2,22; 3,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 2,66</t>
+          <t>-2,7; 2,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 3,11</t>
+          <t>-3,1; 1,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-41,33; 0,0</t>
+          <t>-26,35; -3,5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-10,7</t>
+          <t>-4,03</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,21%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,71%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-11,04%</t>
+          <t>-4,87%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 2,61</t>
+          <t>-2,79; 10,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 1,92</t>
+          <t>-5,1; 6,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 1,07</t>
+          <t>-4,44; 7,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,96; -3,2</t>
+          <t>-19,97; 14,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 2,81</t>
+          <t>-3,27; 13,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 2,03</t>
+          <t>-5,66; 8,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 1,12</t>
+          <t>-4,99; 9,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-23,36; -3,36</t>
+          <t>-22,52; 20,72</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,69</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,17</t>
+          <t>-9,94</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>-0,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-5,04%</t>
+          <t>-10,59%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 10,22</t>
+          <t>-1,98; 2,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 6,11</t>
+          <t>-1,9; 2,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 7,23</t>
+          <t>-2,11; 2,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,6; 11,6</t>
+          <t>-19,48; -3,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 13,03</t>
+          <t>-2,09; 3,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 7,11</t>
+          <t>-2,0; 2,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 8,74</t>
+          <t>-2,22; 2,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,44; 15,6</t>
+          <t>-20,8; -3,64</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,53</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-9,17</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,57%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,06%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-0,06%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-9,77%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,67; 2,7</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,93; 2,0</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,14; 2,09</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-18,91; -2,53</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-1,78; 2,96</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-2,02; 2,14</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-2,26; 2,23</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-20,13; -2,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
